--- a/database/industries/chemical/jam/product/quarterly.xlsx
+++ b/database/industries/chemical/jam/product/quarterly.xlsx
@@ -1,176 +1,547 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\chemical\jam\product\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="39">
   <si>
-    <t>Pouya Finance</t>
+    <t xml:space="preserve">Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t xml:space="preserve">Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>جم-پتروشیمی جم</t>
+    <r>
+      <rPr>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">جم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri Light"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">پتروشیمی جم</t>
+    </r>
   </si>
   <si>
-    <t>تولید و فروش</t>
+    <t xml:space="preserve">تولید و فروش</t>
   </si>
   <si>
-    <t>مقدار تولید</t>
+    <t xml:space="preserve">مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل دوم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1399/06</t>
+    </r>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/09</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل سوم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1399/09</t>
+    </r>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل چهارم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1399/12</t>
+    </r>
   </si>
   <si>
-    <t>فصل اول منتهی به 1400/03</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل اول منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1400/03</t>
+    </r>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل دوم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1400/06</t>
+    </r>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1400/09</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل سوم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1400/09</t>
+    </r>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1400/12</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل چهارم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1400/12</t>
+    </r>
   </si>
   <si>
-    <t>فصل اول منتهی به 1401/03</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل اول منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1401/03</t>
+    </r>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1401/06</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل دوم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1401/06</t>
+    </r>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1401/09</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فصل سوم منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1401/09</t>
+    </r>
   </si>
   <si>
-    <t>سایر</t>
+    <t xml:space="preserve">سایر</t>
   </si>
   <si>
-    <t>تن</t>
+    <t xml:space="preserve">تن</t>
   </si>
   <si>
-    <t>بنزین پیرولیز</t>
+    <t xml:space="preserve">بنزین پیرولیز</t>
   </si>
   <si>
-    <t>پلی اتیلن سنگین</t>
+    <t xml:space="preserve">پلی اتیلن سنگین</t>
   </si>
   <si>
-    <t>پروپیلن</t>
+    <t xml:space="preserve">پروپیلن</t>
   </si>
   <si>
-    <t>اتیلن</t>
+    <t xml:space="preserve">اتیلن</t>
   </si>
   <si>
-    <t>نفت کوره</t>
+    <t xml:space="preserve">نفت کوره</t>
   </si>
   <si>
-    <t>-</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t>بوتن 1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">بوتن </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
   <si>
-    <t>پلی اتیلن سبک</t>
+    <t xml:space="preserve">پلی اتیلن سبک</t>
   </si>
   <si>
-    <t>بوتادین</t>
+    <t xml:space="preserve">بوتادین</t>
   </si>
   <si>
-    <t>سایر / تخفیفات</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">سایر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تخفیفات</t>
+    </r>
   </si>
   <si>
-    <t>جمع</t>
+    <t xml:space="preserve">جمع</t>
   </si>
   <si>
-    <t>مقدار فروش</t>
+    <t xml:space="preserve">مقدار فروش</t>
   </si>
   <si>
-    <t>برگشت از فروش</t>
+    <t xml:space="preserve">برگشت از فروش</t>
   </si>
   <si>
-    <t>ریال</t>
+    <t xml:space="preserve">ریال</t>
   </si>
   <si>
-    <t>مبلغ فروش</t>
+    <t xml:space="preserve">مبلغ فروش</t>
   </si>
   <si>
-    <t>میلیون ریال</t>
+    <t xml:space="preserve">میلیون ریال</t>
   </si>
   <si>
-    <t>نرخ فروش</t>
+    <t xml:space="preserve">نرخ فروش</t>
   </si>
   <si>
-    <t>تن / ریال</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تن </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ریال</t>
+    </r>
   </si>
   <si>
-    <t>ریال / ریال</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ریال </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ریال</t>
+    </r>
   </si>
   <si>
-    <t>/ ریال</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ریال</t>
+    </r>
   </si>
   <si>
-    <t>مبلغ بهای تمام شده</t>
+    <t xml:space="preserve">مبلغ بهای تمام شده</t>
   </si>
   <si>
-    <t>سود ناخالص</t>
+    <t xml:space="preserve">سود ناخالص</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri Bold"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri Bold"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -183,31 +554,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECECEC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF5F5F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A9E8"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFECECEC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
+  <borders count="3">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -216,357 +587,205 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="19">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF5F5F5"/>
+      <rgbColor rgb="FFECECEC"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00A9E8"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -581,7 +800,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +817,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -615,7 +834,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -630,7 +849,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -647,7 +866,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -664,7 +883,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -679,44 +898,44 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -731,432 +950,432 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="n">
         <v>44976</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10" t="n">
         <v>36601</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10" t="n">
         <v>33500</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10" t="n">
         <v>33348</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10" t="n">
         <v>19158</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10" t="n">
         <v>20584</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10" t="n">
         <v>7403</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10" t="n">
         <v>22150</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="10" t="n">
         <v>19406</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="10" t="n">
         <v>9814</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="n">
         <v>84355</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12" t="n">
         <v>74819</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12" t="n">
         <v>75841</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12" t="n">
         <v>78250</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="12" t="n">
         <v>57481</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="12" t="n">
         <v>66498</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="12" t="n">
         <v>59635</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="12" t="n">
         <v>62517</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="12" t="n">
         <v>64202</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="12" t="n">
         <v>60804</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="n">
         <v>93250</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10" t="n">
         <v>73520</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10" t="n">
         <v>91381</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10" t="n">
         <v>85024</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10" t="n">
         <v>90333</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10" t="n">
         <v>85453</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10" t="n">
         <v>83246</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="10" t="n">
         <v>90812</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="10" t="n">
         <v>81957</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="10" t="n">
         <v>82071</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="n">
         <v>78949</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12" t="n">
         <v>71262</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12" t="n">
         <v>70179</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12" t="n">
         <v>75193</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="12" t="n">
         <v>57909</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12" t="n">
         <v>59925</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="12" t="n">
         <v>58016</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="12" t="n">
         <v>63559</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="12" t="n">
         <v>64766</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="12" t="n">
         <v>59163</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="n">
         <v>333688</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10" t="n">
         <v>314533</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10" t="n">
         <v>310088</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10" t="n">
         <v>310803</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10" t="n">
         <v>237701</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10" t="n">
         <v>290489</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10" t="n">
         <v>282872</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="10" t="n">
         <v>270967</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="10" t="n">
         <v>286226</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="10" t="n">
         <v>249902</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="13" t="n">
         <v>9158</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="13" t="n">
         <v>4693</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="13" t="n">
         <v>4069</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="13" t="n">
         <v>3884</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="13" t="n">
         <v>4224</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="13" t="n">
         <v>4459</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="n">
         <v>3560</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10" t="n">
         <v>5302</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10" t="n">
         <v>4132</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="10" t="n">
         <v>4400</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10" t="n">
         <v>4558</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="10" t="n">
         <v>4863</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="10" t="n">
         <v>4491</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="10" t="n">
         <v>5442</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="10" t="n">
         <v>6496</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="10" t="n">
         <v>4081</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="n">
         <v>76112</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="13" t="n">
         <v>110523</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="13" t="n">
         <v>102941</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="13" t="n">
         <v>84528</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="13" t="n">
         <v>79779</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="13" t="n">
         <v>93439</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="13" t="n">
         <v>94516</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="13" t="n">
         <v>102898</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="13" t="n">
         <v>102842</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="13" t="n">
         <v>82678</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="n">
         <v>28477</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10" t="n">
         <v>28038</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10" t="n">
         <v>30026</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="10" t="n">
         <v>29099</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="10" t="n">
         <v>23524</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10" t="n">
         <v>20635</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="10" t="n">
         <v>7256</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="10" t="n">
         <v>23976</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="10" t="n">
         <v>20596</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="10" t="n">
         <v>9510</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="n">
         <v>743367</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="15" t="n">
         <v>714598</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="15" t="n">
         <v>718088</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="15" t="n">
         <v>700645</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="15" t="n">
         <v>579601</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="15" t="n">
         <v>646579</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="15" t="n">
         <v>601504</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="15" t="n">
         <v>646205</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="15" t="n">
         <v>650715</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="15" t="n">
         <v>562482</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1171,7 +1390,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1186,7 +1405,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1201,44 +1420,44 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1253,508 +1472,508 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="n">
         <v>11695</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10" t="n">
         <v>9042</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10" t="n">
         <v>19881</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="10" t="n">
         <v>11447</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="I26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="16" t="n">
         <v>3955</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="16" t="n">
         <v>4175</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="16" t="n">
         <v>3770</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="16" t="n">
         <v>2123</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="13" t="n">
         <v>7737</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="13" t="n">
         <v>7223</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="K27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="n">
         <v>85823</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="16" t="n">
         <v>75796</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="16" t="n">
         <v>76875</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="16" t="n">
         <v>79897</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="16" t="n">
         <v>57444</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="16" t="n">
         <v>63011</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="16" t="n">
         <v>66280</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="16" t="n">
         <v>63384</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="16" t="n">
         <v>64197</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="16" t="n">
         <v>61055</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="n">
         <v>80612</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="13" t="n">
         <v>66138</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="13" t="n">
         <v>105846</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="13" t="n">
         <v>82600</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="13" t="n">
         <v>65737</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="13" t="n">
         <v>82253</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="13" t="n">
         <v>104069</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="13" t="n">
         <v>85120</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="13" t="n">
         <v>87501</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="13" t="n">
         <v>105184</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="n">
         <v>71159</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="16" t="n">
         <v>63711</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="16" t="n">
         <v>57822</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="16" t="n">
         <v>67056</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="16" t="n">
         <v>43693</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="16" t="n">
         <v>50945</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="16" t="n">
         <v>47265</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="16" t="n">
         <v>50548</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="16" t="n">
         <v>49600</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="16" t="n">
         <v>48584</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="n">
         <v>162851</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="13" t="n">
         <v>123145</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="13" t="n">
         <v>125521</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="13" t="n">
         <v>119970</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="13" t="n">
         <v>115348</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="13" t="n">
         <v>104187</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="13" t="n">
         <v>95692</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="13" t="n">
         <v>76094</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="13" t="n">
         <v>87402</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="13" t="n">
         <v>81255</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="n">
         <v>6638</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="16" t="n">
         <v>5234</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="16" t="n">
         <v>5433</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="16" t="n">
         <v>5281</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="16" t="n">
         <v>6258</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="16" t="n">
         <v>2360</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="16" t="n">
         <v>5539</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="16" t="n">
         <v>3727</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="16" t="n">
         <v>4286</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="16" t="n">
         <v>4298</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="n">
         <v>1802</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="16" t="n">
         <v>2368</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="16" t="n">
         <v>2400</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="16" t="n">
         <v>2809</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="16" t="n">
         <v>2531</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="16" t="n">
         <v>847</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="16" t="n">
         <v>2404</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="16" t="n">
         <v>1963</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="16" t="n">
         <v>2019</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="16" t="n">
         <v>2703</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="n">
         <v>67016</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="13" t="n">
         <v>77666</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="13" t="n">
         <v>107599</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="13" t="n">
         <v>92585</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="13" t="n">
         <v>84498</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="13" t="n">
         <v>67132</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="13" t="n">
         <v>97661</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="13" t="n">
         <v>87228</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="13" t="n">
         <v>82470</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="13" t="n">
         <v>91953</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="n">
         <v>19163</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="16" t="n">
         <v>33134</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="16" t="n">
         <v>33515</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="16" t="n">
         <v>16211</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="16" t="n">
         <v>41277</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="16" t="n">
         <v>23594</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="16" t="n">
         <v>4235</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="16" t="n">
         <v>20625</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="16" t="n">
         <v>19951</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="16" t="n">
         <v>9844</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="11">
-        <v>0</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
-      </c>
-      <c r="L37" s="11">
-        <v>0</v>
-      </c>
-      <c r="M37" s="11">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="n">
         <v>506759</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="15" t="n">
         <v>456234</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="15" t="n">
         <v>534892</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="15" t="n">
         <v>477856</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="15" t="n">
         <v>424523</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="15" t="n">
         <v>401552</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="15" t="n">
         <v>427100</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="15" t="n">
         <v>392864</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="15" t="n">
         <v>401196</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="15" t="n">
         <v>406999</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1769,7 +1988,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1784,7 +2003,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1799,44 +2018,44 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1851,473 +2070,473 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="n">
         <v>741693</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="16" t="n">
         <v>835512</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="16" t="n">
         <v>1757473</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="16" t="n">
         <v>1433825</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="16" t="n">
         <v>1137547</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="16" t="n">
         <v>1254864</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="16" t="n">
         <v>870443</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="16" t="n">
         <v>890388</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="16" t="n">
         <v>730830</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="16" t="n">
         <v>393608</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="n">
         <v>5469324</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="13" t="n">
         <v>6599770</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="13" t="n">
         <v>8777648</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="13" t="n">
         <v>9050237</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="13" t="n">
         <v>7672611</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="13" t="n">
         <v>9923849</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="13" t="n">
         <v>12057442</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="13" t="n">
         <v>12100604</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="13" t="n">
         <v>10323361</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="13" t="n">
         <v>9591837</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="n">
         <v>11909101</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="16" t="n">
         <v>13430945</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="16" t="n">
         <v>28643619</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="16" t="n">
         <v>20500651</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="16" t="n">
         <v>19657343</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="16" t="n">
         <v>18645459</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="16" t="n">
         <v>29200073</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="16" t="n">
         <v>28521035</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="16" t="n">
         <v>27740642</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="16" t="n">
         <v>30979557</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="n">
         <v>7762103</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="13" t="n">
         <v>10889128</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="13" t="n">
         <v>11632974</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="13" t="n">
         <v>11628388</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="13" t="n">
         <v>7098809</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="13" t="n">
         <v>8826881</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="13" t="n">
         <v>9742641</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="13" t="n">
         <v>10574477</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="13" t="n">
         <v>8478832</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="13" t="n">
         <v>8472432</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="n">
         <v>15678073</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="16" t="n">
         <v>18483680</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="16" t="n">
         <v>23619455</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="16" t="n">
         <v>21788190</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="16" t="n">
         <v>19605184</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="16" t="n">
         <v>20689193</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="16" t="n">
         <v>20376753</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="16" t="n">
         <v>18948489</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="16" t="n">
         <v>17716273</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="16" t="n">
         <v>14976865</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="n">
         <v>246766</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="13" t="n">
         <v>276745</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="13" t="n">
         <v>375802</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="13" t="n">
         <v>403494</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="13" t="n">
         <v>322230</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="13" t="n">
         <v>460125</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="13" t="n">
         <v>432320</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="13" t="n">
         <v>503035</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="13" t="n">
         <v>587708</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="13" t="n">
         <v>441004</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13" t="n">
         <v>210846</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="13" t="n">
         <v>456807</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="13" t="n">
         <v>466263</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="13" t="n">
         <v>682643</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="13" t="n">
         <v>593761</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="13" t="n">
         <v>224261</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="13" t="n">
         <v>635544</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="13" t="n">
         <v>635054</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="13" t="n">
         <v>568105</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="13" t="n">
         <v>723102</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="n">
         <v>9854312</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="16" t="n">
         <v>16908095</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="16" t="n">
         <v>30600810</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="16" t="n">
         <v>21043281</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="16" t="n">
         <v>15247918</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="16" t="n">
         <v>22332796</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="16" t="n">
         <v>27639533</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="16" t="n">
         <v>24177310</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="16" t="n">
         <v>20788410</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="16" t="n">
         <v>23979334</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11">
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="n">
         <v>2010380</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="13" t="n">
         <v>8583167</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="13" t="n">
         <v>5719340</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="13" t="n">
         <v>3069867</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="13" t="n">
         <v>10554961</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="13" t="n">
         <v>2827538</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="13" t="n">
         <v>1685621</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="13" t="n">
         <v>7384384</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="13" t="n">
         <v>4386231</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N53" s="13" t="n">
         <v>1810750</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9">
-        <v>0</v>
-      </c>
-      <c r="N54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18" t="n">
         <v>53882598</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="18" t="n">
         <v>76463849</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="18" t="n">
         <v>111593384</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="18" t="n">
         <v>89600576</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="18" t="n">
         <v>81890364</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="18" t="n">
         <v>85184966</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="18" t="n">
         <v>102640370</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="18" t="n">
         <v>103734776</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="18" t="n">
         <v>91320392</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="18" t="n">
         <v>91368489</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2332,7 +2551,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2347,7 +2566,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2362,44 +2581,44 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="N59" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2414,436 +2633,436 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16" t="n">
         <v>63419667</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="16" t="n">
         <v>92403451</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="16" t="n">
         <v>103380765</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="16" t="n">
         <v>125257709</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="16" t="n">
         <v>147026884</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="16" t="n">
         <v>173731690</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="16" t="n">
         <v>220086726</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="16" t="n">
         <v>213266587</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="16" t="n">
         <v>193854111</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="16" t="n">
         <v>185401790</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="n">
         <v>63727952</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="13" t="n">
         <v>87072801</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="13" t="n">
         <v>114180787</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="13" t="n">
         <v>113273803</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="13" t="n">
         <v>133566795</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="13" t="n">
         <v>157493914</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="13" t="n">
         <v>181916747</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="13" t="n">
         <v>190909441</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="13" t="n">
         <v>160807530</v>
       </c>
-      <c r="N62" s="11">
+      <c r="N62" s="13" t="n">
         <v>157101581</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16" t="n">
         <v>147733600</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="16" t="n">
         <v>203074556</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="16" t="n">
         <v>246157447</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="16" t="n">
         <v>248191901</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="16" t="n">
         <v>299030120</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="16" t="n">
         <v>226684243</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="16" t="n">
         <v>280583776</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="16" t="n">
         <v>335068550</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="16" t="n">
         <v>317032285</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="16" t="n">
         <v>294527276</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13" t="n">
         <v>109081114</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="13" t="n">
         <v>170914410</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="13" t="n">
         <v>181272384</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="13" t="n">
         <v>173413088</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="13" t="n">
         <v>162470167</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="13" t="n">
         <v>173262950</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="13" t="n">
         <v>206128023</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="13" t="n">
         <v>209196744</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="13" t="n">
         <v>170944194</v>
       </c>
-      <c r="N64" s="11">
+      <c r="N64" s="13" t="n">
         <v>174387288</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9">
+      <c r="D65" s="16"/>
+      <c r="E65" s="16" t="n">
         <v>96272501</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="16" t="n">
         <v>150096878</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="16" t="n">
         <v>181739841</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="16" t="n">
         <v>181613653</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="16" t="n">
         <v>169965530</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="16" t="n">
         <v>198577490</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="16" t="n">
         <v>212941030</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="16" t="n">
         <v>249014232</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="16" t="n">
         <v>202698714</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="16" t="n">
         <v>184319303</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13" t="n">
         <v>37174751</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="13" t="n">
         <v>52874475</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="13" t="n">
         <v>69195728</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="13" t="n">
         <v>76404848</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="13" t="n">
         <v>51490892</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="13" t="n">
         <v>194968220</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="13" t="n">
         <v>78050190</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="13" t="n">
         <v>134970486</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="13" t="n">
         <v>137122725</v>
       </c>
-      <c r="N66" s="11">
+      <c r="N66" s="13" t="n">
         <v>102606794</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11">
+      <c r="D68" s="13"/>
+      <c r="E68" s="13" t="n">
         <v>117006659</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="13" t="n">
         <v>192908361</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="13" t="n">
         <v>243098540</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="13" t="n">
         <v>243019936</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="13" t="n">
         <v>234595417</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="13" t="n">
         <v>264770956</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="13" t="n">
         <v>264369384</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="13" t="n">
         <v>323511971</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="13" t="n">
         <v>281379396</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N68" s="13" t="n">
         <v>267518313</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9">
+      <c r="D69" s="16"/>
+      <c r="E69" s="16" t="n">
         <v>147044169</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="16" t="n">
         <v>217702663</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="16" t="n">
         <v>245627860</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="16" t="n">
         <v>227286072</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="16" t="n">
         <v>180453005</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="16" t="n">
         <v>332669904</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="16" t="n">
         <v>283015052</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L69" s="16" t="n">
         <v>277173729</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M69" s="16" t="n">
         <v>252072390</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="16" t="n">
         <v>260778158</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11">
+      <c r="D70" s="13"/>
+      <c r="E70" s="13" t="n">
         <v>104909461</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="13" t="n">
         <v>259044094</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="13" t="n">
         <v>188520667</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="13" t="n">
         <v>189369379</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="13" t="n">
         <v>255710468</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="13" t="n">
         <v>119841400</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="13" t="n">
         <v>398021488</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="13" t="n">
         <v>358030739</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M70" s="13" t="n">
         <v>219850183</v>
       </c>
-      <c r="N70" s="11">
+      <c r="N70" s="13" t="n">
         <v>183944535</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D71" s="16"/>
+      <c r="E71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2858,7 +3077,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2873,7 +3092,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2888,44 +3107,44 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M75" s="6" t="s">
+      <c r="M75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N75" s="6" t="s">
+      <c r="N75" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2940,473 +3159,473 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9">
+      <c r="D77" s="16"/>
+      <c r="E77" s="16" t="n">
         <v>-1168887</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="16" t="n">
         <v>-1500068</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="16" t="n">
         <v>-1568832</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="16" t="n">
         <v>-5222410</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="16" t="n">
         <v>-2384534</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="16" t="n">
         <v>-1936419</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="16" t="n">
         <v>4101036</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="16" t="n">
         <v>-1007019</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="16" t="n">
         <v>-947730</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="16" t="n">
         <v>-397359</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11">
+      <c r="D78" s="13"/>
+      <c r="E78" s="13" t="n">
         <v>-6583294</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="13" t="n">
         <v>-8029514</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="13" t="n">
         <v>-10466238</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="13" t="n">
         <v>-9132875</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="13" t="n">
         <v>-9535358</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J78" s="13" t="n">
         <v>-11199271</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="13" t="n">
         <v>-15889705</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="13" t="n">
         <v>-14510100</v>
       </c>
-      <c r="M78" s="11">
+      <c r="M78" s="13" t="n">
         <v>-12771578</v>
       </c>
-      <c r="N78" s="11">
+      <c r="N78" s="13" t="n">
         <v>-13201928</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16" t="n">
         <v>-5832301</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="16" t="n">
         <v>-8376225</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="16" t="n">
         <v>-11533802</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="16" t="n">
         <v>-8237590</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="16" t="n">
         <v>-12387266</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="16" t="n">
         <v>-11787783</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="16" t="n">
         <v>-21159796</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L79" s="16" t="n">
         <v>-16184625</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M79" s="16" t="n">
         <v>-16145039</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="16" t="n">
         <v>-20187373</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11">
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="n">
         <v>-6661319</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="13" t="n">
         <v>-7091250</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="13" t="n">
         <v>-10443704</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="13" t="n">
         <v>-9270225</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="13" t="n">
         <v>-6397034</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J80" s="13" t="n">
         <v>-8944642</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="13" t="n">
         <v>-12538868</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="13" t="n">
         <v>-11614087</v>
       </c>
-      <c r="M80" s="11">
+      <c r="M80" s="13" t="n">
         <v>-10042592</v>
       </c>
-      <c r="N80" s="11">
+      <c r="N80" s="13" t="n">
         <v>-10850472</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9">
+      <c r="D81" s="16"/>
+      <c r="E81" s="16" t="n">
         <v>-9587519</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="16" t="n">
         <v>-10371722</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="16" t="n">
         <v>-13589102</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="16" t="n">
         <v>-15686763</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="16" t="n">
         <v>-9343966</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="16" t="n">
         <v>-14785662</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81" s="16" t="n">
         <v>-20006413</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L81" s="16" t="n">
         <v>-11993429</v>
       </c>
-      <c r="M81" s="9">
+      <c r="M81" s="16" t="n">
         <v>-14562311</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="16" t="n">
         <v>-10357181</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11">
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="n">
         <v>-402678</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="13" t="n">
         <v>-316570</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="13" t="n">
         <v>-528455</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="13" t="n">
         <v>-470970</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="13" t="n">
         <v>-560108</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="13" t="n">
         <v>-596770</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="13" t="n">
         <v>-859366</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="13" t="n">
         <v>-1007608</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="13" t="n">
         <v>-1070482</v>
       </c>
-      <c r="N82" s="11">
+      <c r="N82" s="13" t="n">
         <v>-999888</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
-        <v>0</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11">
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="n">
         <v>-253837</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="13" t="n">
         <v>-110633</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="13" t="n">
         <v>-425338</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="13" t="n">
         <v>-360521</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="13" t="n">
         <v>-431782</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J84" s="13" t="n">
         <v>-233349</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="13" t="n">
         <v>-636963</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="13" t="n">
         <v>-535644</v>
       </c>
-      <c r="M84" s="11">
+      <c r="M84" s="13" t="n">
         <v>-522770</v>
       </c>
-      <c r="N84" s="11">
+      <c r="N84" s="13" t="n">
         <v>-800069</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16" t="n">
         <v>-6155347</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="16" t="n">
         <v>-9415270</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="16" t="n">
         <v>-13086640</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="16" t="n">
         <v>-10000815</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="16" t="n">
         <v>-11175329</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="16" t="n">
         <v>-14187282</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="16" t="n">
         <v>-23188289</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L85" s="16" t="n">
         <v>-17866223</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="16" t="n">
         <v>-15430005</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="16" t="n">
         <v>-18336958</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11">
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="n">
         <v>-2140189</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="13" t="n">
         <v>-3789313</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="13" t="n">
         <v>-2511170</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="13" t="n">
         <v>-3358870</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="13" t="n">
         <v>-4997224</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J86" s="13" t="n">
         <v>-3253550</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="13" t="n">
         <v>-2863424</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86" s="13" t="n">
         <v>-3854300</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M86" s="13" t="n">
         <v>-4838179</v>
       </c>
-      <c r="N86" s="11">
+      <c r="N86" s="13" t="n">
         <v>-511927</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-      <c r="J87" s="9">
-        <v>0</v>
-      </c>
-      <c r="K87" s="9">
-        <v>0</v>
-      </c>
-      <c r="L87" s="9">
-        <v>0</v>
-      </c>
-      <c r="M87" s="9">
-        <v>0</v>
-      </c>
-      <c r="N87" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15">
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18" t="n">
         <v>-38785371</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F88" s="18" t="n">
         <v>-49000565</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="18" t="n">
         <v>-64153281</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="18" t="n">
         <v>-61741039</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I88" s="18" t="n">
         <v>-57212601</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="18" t="n">
         <v>-66924728</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K88" s="18" t="n">
         <v>-93041788</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L88" s="18" t="n">
         <v>-78573035</v>
       </c>
-      <c r="M88" s="15">
+      <c r="M88" s="18" t="n">
         <v>-76330686</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N88" s="18" t="n">
         <v>-75643155</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3421,7 +3640,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3436,7 +3655,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3451,44 +3670,44 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J92" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K92" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L92" s="6" t="s">
+      <c r="L92" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="6" t="s">
+      <c r="M92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N92" s="6" t="s">
+      <c r="N92" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3503,473 +3722,479 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16" t="n">
         <v>-427194</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="16" t="n">
         <v>-664556</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="16" t="n">
         <v>188641</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="16" t="n">
         <v>-3788585</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="16" t="n">
         <v>-1246987</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="16" t="n">
         <v>-681555</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K94" s="16" t="n">
         <v>4971479</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L94" s="16" t="n">
         <v>-116631</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M94" s="16" t="n">
         <v>-216900</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94" s="16" t="n">
         <v>-3751</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11">
+      <c r="D95" s="13"/>
+      <c r="E95" s="13" t="n">
         <v>-1113970</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="13" t="n">
         <v>-1429744</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="13" t="n">
         <v>-1688590</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="13" t="n">
         <v>-82638</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="13" t="n">
         <v>-1862747</v>
       </c>
-      <c r="J95" s="11">
+      <c r="J95" s="13" t="n">
         <v>-1275422</v>
       </c>
-      <c r="K95" s="11">
+      <c r="K95" s="13" t="n">
         <v>-3832263</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L95" s="13" t="n">
         <v>-2409496</v>
       </c>
-      <c r="M95" s="11">
+      <c r="M95" s="13" t="n">
         <v>-2448217</v>
       </c>
-      <c r="N95" s="11">
+      <c r="N95" s="13" t="n">
         <v>-3610091</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9">
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="n">
         <v>6076800</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="16" t="n">
         <v>5054720</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="16" t="n">
         <v>17109817</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="16" t="n">
         <v>12263061</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="16" t="n">
         <v>7270077</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="16" t="n">
         <v>6857676</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="16" t="n">
         <v>8040277</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="16" t="n">
         <v>12336410</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M96" s="16" t="n">
         <v>11595603</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="16" t="n">
         <v>10792184</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11">
+      <c r="D97" s="13"/>
+      <c r="E97" s="13" t="n">
         <v>1100784</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="13" t="n">
         <v>3797878</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="13" t="n">
         <v>1189270</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="13" t="n">
         <v>2358163</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I97" s="13" t="n">
         <v>701775</v>
       </c>
-      <c r="J97" s="11">
+      <c r="J97" s="13" t="n">
         <v>-117761</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K97" s="13" t="n">
         <v>-2796227</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L97" s="13" t="n">
         <v>-1039610</v>
       </c>
-      <c r="M97" s="11">
+      <c r="M97" s="13" t="n">
         <v>-1563760</v>
       </c>
-      <c r="N97" s="11">
+      <c r="N97" s="13" t="n">
         <v>-2378040</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9">
+      <c r="D98" s="16"/>
+      <c r="E98" s="16" t="n">
         <v>6090554</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="16" t="n">
         <v>8111958</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="16" t="n">
         <v>10030353</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="16" t="n">
         <v>6101427</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="16" t="n">
         <v>10261218</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="16" t="n">
         <v>5903531</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="16" t="n">
         <v>370340</v>
       </c>
-      <c r="L98" s="9">
+      <c r="L98" s="16" t="n">
         <v>6955060</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M98" s="16" t="n">
         <v>3153962</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="16" t="n">
         <v>4619684</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="10" t="s">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11">
+      <c r="D99" s="13"/>
+      <c r="E99" s="13" t="n">
         <v>-155912</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="13" t="n">
         <v>-39825</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="13" t="n">
         <v>-152653</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="13" t="n">
         <v>-67476</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="13" t="n">
         <v>-237878</v>
       </c>
-      <c r="J99" s="11">
+      <c r="J99" s="13" t="n">
         <v>-136645</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="13" t="n">
         <v>-427046</v>
       </c>
-      <c r="L99" s="11">
+      <c r="L99" s="13" t="n">
         <v>-504573</v>
       </c>
-      <c r="M99" s="11">
+      <c r="M99" s="13" t="n">
         <v>-482774</v>
       </c>
-      <c r="N99" s="11">
+      <c r="N99" s="13" t="n">
         <v>-558884</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>0</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N100" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
+      <c r="D100" s="16"/>
+      <c r="E100" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M100" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11">
+      <c r="D101" s="13"/>
+      <c r="E101" s="13" t="n">
         <v>-42991</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="13" t="n">
         <v>346174</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="13" t="n">
         <v>40925</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="13" t="n">
         <v>322122</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="13" t="n">
         <v>161979</v>
       </c>
-      <c r="J101" s="11">
+      <c r="J101" s="13" t="n">
         <v>-9088</v>
       </c>
-      <c r="K101" s="11">
+      <c r="K101" s="13" t="n">
         <v>-1419</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101" s="13" t="n">
         <v>99410</v>
       </c>
-      <c r="M101" s="11">
+      <c r="M101" s="13" t="n">
         <v>45335</v>
       </c>
-      <c r="N101" s="11">
+      <c r="N101" s="13" t="n">
         <v>-76967</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9">
+      <c r="D102" s="16"/>
+      <c r="E102" s="16" t="n">
         <v>3698965</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="16" t="n">
         <v>7492825</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="16" t="n">
         <v>17514170</v>
       </c>
-      <c r="H102" s="9">
+      <c r="H102" s="16" t="n">
         <v>11042466</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="16" t="n">
         <v>4072589</v>
       </c>
-      <c r="J102" s="9">
+      <c r="J102" s="16" t="n">
         <v>8145514</v>
       </c>
-      <c r="K102" s="9">
+      <c r="K102" s="16" t="n">
         <v>4451244</v>
       </c>
-      <c r="L102" s="9">
+      <c r="L102" s="16" t="n">
         <v>6311087</v>
       </c>
-      <c r="M102" s="9">
+      <c r="M102" s="16" t="n">
         <v>5358405</v>
       </c>
-      <c r="N102" s="9">
+      <c r="N102" s="16" t="n">
         <v>5642376</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="10" t="s">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11">
+      <c r="D103" s="13"/>
+      <c r="E103" s="13" t="n">
         <v>-129809</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="13" t="n">
         <v>4793854</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="13" t="n">
         <v>3208170</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="13" t="n">
         <v>-289003</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I103" s="13" t="n">
         <v>5557737</v>
       </c>
-      <c r="J103" s="11">
+      <c r="J103" s="13" t="n">
         <v>-426012</v>
       </c>
-      <c r="K103" s="11">
+      <c r="K103" s="13" t="n">
         <v>-1177803</v>
       </c>
-      <c r="L103" s="11">
+      <c r="L103" s="13" t="n">
         <v>3530084</v>
       </c>
-      <c r="M103" s="11">
+      <c r="M103" s="13" t="n">
         <v>-451948</v>
       </c>
-      <c r="N103" s="11">
+      <c r="N103" s="13" t="n">
         <v>1298823</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>0</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9">
-        <v>0</v>
-      </c>
-      <c r="K104" s="9">
-        <v>0</v>
-      </c>
-      <c r="L104" s="9">
-        <v>0</v>
-      </c>
-      <c r="M104" s="9">
-        <v>0</v>
-      </c>
-      <c r="N104" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="14" t="s">
+      <c r="D104" s="16"/>
+      <c r="E104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15">
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18" t="n">
         <v>15097227</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="18" t="n">
         <v>27463284</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="18" t="n">
         <v>47440103</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="18" t="n">
         <v>27859537</v>
       </c>
-      <c r="I105" s="15">
+      <c r="I105" s="18" t="n">
         <v>24677763</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="18" t="n">
         <v>18260238</v>
       </c>
-      <c r="K105" s="15">
+      <c r="K105" s="18" t="n">
         <v>9598582</v>
       </c>
-      <c r="L105" s="15">
+      <c r="L105" s="18" t="n">
         <v>25161741</v>
       </c>
-      <c r="M105" s="15">
+      <c r="M105" s="18" t="n">
         <v>14989706</v>
       </c>
-      <c r="N105" s="15">
+      <c r="N105" s="18" t="n">
         <v>15725334</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>